--- a/excel/职务.xlsx
+++ b/excel/职务.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -333,8 +333,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -461,7 +461,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -496,7 +495,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,19 +670,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -692,7 +690,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -700,7 +698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -708,7 +706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -716,7 +714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -724,7 +722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -732,7 +730,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -740,7 +738,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -748,7 +746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -756,7 +754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -764,7 +762,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -772,7 +770,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -780,7 +778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -788,7 +786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -796,7 +794,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -804,7 +802,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -812,7 +810,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>78</v>
       </c>
@@ -820,7 +818,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -828,7 +826,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>80</v>
       </c>
@@ -836,7 +834,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -844,7 +842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -852,7 +850,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -860,7 +858,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -868,7 +866,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -876,7 +874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -884,7 +882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -892,7 +890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -900,7 +898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>83</v>
       </c>
@@ -908,7 +906,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -916,7 +914,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -924,7 +922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>84</v>
       </c>
@@ -932,7 +930,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -940,7 +938,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -948,7 +946,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -956,7 +954,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -964,7 +962,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -972,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -980,7 +978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>26</v>
       </c>
@@ -988,12 +986,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1001,7 +999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>28</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>29</v>
       </c>
@@ -1017,7 +1015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>30</v>
       </c>
@@ -1025,7 +1023,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1041,7 +1039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -1049,7 +1047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -1057,7 +1055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>36</v>
       </c>
@@ -1073,7 +1071,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>87</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -1089,7 +1087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1097,7 +1095,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -1105,7 +1103,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>41</v>
       </c>
@@ -1129,7 +1127,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -1137,7 +1135,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1145,7 +1143,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1153,7 +1151,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>45</v>
       </c>
@@ -1161,7 +1159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>46</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -1185,7 +1183,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>48</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>50</v>
       </c>
@@ -1209,7 +1207,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>90</v>
       </c>
@@ -1217,7 +1215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -1225,7 +1223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -1241,7 +1239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>54</v>
       </c>
@@ -1249,7 +1247,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>56</v>
       </c>
@@ -1265,7 +1263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>91</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -1281,7 +1279,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1295,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>93</v>
       </c>
@@ -1305,7 +1303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>59</v>
       </c>
@@ -1313,7 +1311,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -1321,7 +1319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -1329,7 +1327,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>63</v>
       </c>
@@ -1345,7 +1343,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>94</v>
       </c>
@@ -1353,7 +1351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>65</v>
       </c>
@@ -1369,7 +1367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -1377,7 +1375,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -1385,7 +1383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>96</v>
       </c>
@@ -1393,7 +1391,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>67</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>68</v>
       </c>
@@ -1409,7 +1407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -1417,7 +1415,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -1425,7 +1423,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -1433,7 +1431,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>72</v>
       </c>
@@ -1441,7 +1439,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -1449,7 +1447,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -1457,7 +1455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>74</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -1481,38 +1479,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>103</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1522,12 +1535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
